--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>错误码</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>操作错误</t>
+  </si>
+  <si>
+    <t>MONEY_NUM_ERROR</t>
+  </si>
+  <si>
+    <t>兑换数量错误</t>
+  </si>
+  <si>
+    <t>MATCH_ERROR_LOCK</t>
+  </si>
+  <si>
+    <t>房间号错误</t>
+  </si>
+  <si>
+    <t>MATCH_MAX_ROLE_COUNT</t>
+  </si>
+  <si>
+    <t>房间已经满了</t>
+  </si>
+  <si>
+    <t>GAME_NOT_EXIST</t>
+  </si>
+  <si>
+    <t>游戏不存在</t>
   </si>
 </sst>
 </file>
@@ -371,6 +395,50 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>错误码</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>没有钱</t>
+  </si>
+  <si>
+    <t>CONNECT_ERROR</t>
+  </si>
+  <si>
+    <t>服务器链接失败</t>
   </si>
   <si>
     <t>GAME_CREATE_ERROR</t>
@@ -439,6 +445,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>错误码</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>游戏不存在</t>
+  </si>
+  <si>
+    <t>GAME_EXITING</t>
+  </si>
+  <si>
+    <t>其他人正申请退出</t>
   </si>
 </sst>
 </file>
@@ -456,6 +462,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>错误码</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>其他人正申请退出</t>
+  </si>
+  <si>
+    <t>APPLY_REJECT</t>
+  </si>
+  <si>
+    <t>拒绝解散房间</t>
   </si>
 </sst>
 </file>
@@ -473,6 +479,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>错误码</t>
   </si>
@@ -165,6 +165,30 @@
   </si>
   <si>
     <t>拒绝解散房间</t>
+  </si>
+  <si>
+    <t>NOT_YOUR_TURN</t>
+  </si>
+  <si>
+    <t>没轮到你</t>
+  </si>
+  <si>
+    <t>NOT_SAME_TYPE</t>
+  </si>
+  <si>
+    <t>牌型不符</t>
+  </si>
+  <si>
+    <t>SMALLER</t>
+  </si>
+  <si>
+    <t>牌比上家小</t>
+  </si>
+  <si>
+    <t>NULL_REJECT</t>
+  </si>
+  <si>
+    <t>不允许不出牌</t>
   </si>
 </sst>
 </file>
@@ -490,6 +514,50 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>错误码</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>不允许不出牌</t>
+  </si>
+  <si>
+    <t>NOT_LANDLORD</t>
+  </si>
+  <si>
+    <t>你不是地主</t>
+  </si>
+  <si>
+    <t>MINGPAI_FORBIDDEN</t>
+  </si>
+  <si>
+    <t>不能明牌</t>
+  </si>
+  <si>
+    <t>FIRST_ROUND</t>
+  </si>
+  <si>
+    <t>第一轮</t>
   </si>
 </sst>
 </file>
@@ -558,6 +576,39 @@
         <v>58</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>错误码</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>第一轮</t>
+  </si>
+  <si>
+    <t>NO_VIDEO</t>
+  </si>
+  <si>
+    <t>没有录像</t>
   </si>
 </sst>
 </file>
@@ -609,6 +615,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
